--- a/数据整理/stocks/A股/上证主板/601567-三星医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/601567-三星医疗.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4239,4 +4240,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601567-三星医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/601567-三星医疗.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4248,7 +4249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4259,17 +4260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4279,14 +4300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.41</v>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4079</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4295,13 +4338,3045 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2855</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1497</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9902</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8634</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8258</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8170</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011353</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7691</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7395</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7209</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4861</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3207</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3059</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3043</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2997</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2173</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>33.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012667</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融景泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010367</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013209</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011048</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011354</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013210</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>27.48</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010368</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012668</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融景泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>68.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>33.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011049</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>27.48</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>79</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>50</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>9.99</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601567-三星医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/601567-三星医疗.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7307,7 +7308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7318,17 +7319,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7338,14 +7359,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>79</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.31</v>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6393</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -7354,14 +7397,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>47</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.41</v>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5605</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -7370,13 +7435,1313 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3634</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>79</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>50</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>9.99</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601567-三星医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/601567-三星医疗.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8656,7 +8657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8667,17 +8668,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8687,14 +8708,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.8</v>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2206</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -8703,14 +8746,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>79</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.31</v>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7716</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -8719,14 +8784,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>47</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.41</v>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7057</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -8735,13 +8822,1329 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2865</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013116</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006214</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安中证500ETF联接A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>50</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>9.99</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601567-三星医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/601567-三星医疗.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D2" t="n">
-        <v>4.74</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>3.8</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>15.31</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D5" t="n">
-        <v>10.41</v>
+        <v>15.31</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>50</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>9.99</v>
       </c>
     </row>
@@ -566,6 +583,2150 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>107.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5108</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0526</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7736</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6781</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6368</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4796</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4461</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4235</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3431</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2969</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2498</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2483</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012294</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康优势精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005474</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013116</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006904</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005475</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009409</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011554</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通欣利混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014628</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012495</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>民生加银双核动力混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>53.77</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011555</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>海富通欣利混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009410</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>016181</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1951,7 +4112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3299,7 +5460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6357,7 +8518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8199,7 +10360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601567-三星医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/601567-三星医疗.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>11.03</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n">
-        <v>4.74</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>3.8</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>15.31</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D6" t="n">
-        <v>10.41</v>
+        <v>15.31</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>47</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>50</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>9.99</v>
       </c>
     </row>
@@ -583,6 +600,2338 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9373</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8985</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8189</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8010</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>53.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5833</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安宏利混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5648</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4645</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>53.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3607</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2705</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2664</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2642</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012294</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康优势精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009400</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安添瑞6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005474</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013116</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006904</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005475</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013940</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013466</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009401</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安添瑞6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013941</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009409</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015148</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015149</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013465</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.12</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009410</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>016181</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>016294</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安宏利混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2726,7 +5075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4112,7 +6461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5460,7 +7809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8518,7 +10867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10360,7 +12709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
